--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0271 - Pengajuan customer flagging.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0271 - Pengajuan customer flagging.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E723D3E-6EC6-409A-A7FF-3739096485AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883D3F34-F71C-4B78-AA4B-82160C84BD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +646,7 @@
       <c r="O2" s="13">
         <v>9936964558</v>
       </c>
-      <c r="P2" s="14"/>
+      <c r="P2" s="11"/>
       <c r="Q2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>

--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0271 - Pengajuan customer flagging.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0271 - Pengajuan customer flagging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883D3F34-F71C-4B78-AA4B-82160C84BD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79388DFA-93C4-4C0A-93CA-BCEA285137BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>RUN</t>
   </si>
@@ -95,32 +95,81 @@
     <t>FLAGGING</t>
   </si>
   <si>
-    <t>CUSTOMER FLAGGING FAMILY</t>
-  </si>
-  <si>
     <t>DGS-286</t>
   </si>
   <si>
     <t>Pengajuan customer flagging</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  Apabila Sales tersebut sebelumnya telah melakukan proses pengajuan Customer Flagging, maka Proses Send to Penyelia baru dapat dilakukan jika Proses Pengajuan Customer Flagging sebelumnya telah selesai dilakukan (telah melalui tahapan Approval 2 [BM]).
+ -  Tombol proses send to penyelia disable</t>
+  </si>
+  <si>
+    <t>CUSTOMER FLAGGING</t>
   </si>
   <si>
     <t>1. Login Digisales Mobile dengan npp sales
 2. Masukan cif ke dalam filed search profiling
 3. Add to flagging
 4. Sudah terverifikasi
-5. Pengajuan customer flagging ke penyelia. Npp 39237 cif : 9008582439
+5. Pengajuan customer flagging ke penyelia. Npp 23320 cif : 10187811885
 -Nasabah usulan sedang dalam proses usulan</t>
   </si>
   <si>
-    <t xml:space="preserve"> -  Apabila Sales tersebut sebelumnya telah melakukan proses pengajuan Customer Flagging, maka Proses Send to Penyelia baru dapat dilakukan jika Proses Pengajuan Customer Flagging sebelumnya telah selesai dilakukan (telah melalui tahapan Approval 2 [BM]).
- -  Tombol proses send to penyelia disable</t>
+    <t>Query Update StatusFlaggingNew menjadi Menunggu Approval SPV/Penyelia</t>
+  </si>
+  <si>
+    <t>Status Berubah Menjadi Menunggu Approval SPV/Penyelia</t>
+  </si>
+  <si>
+    <t>QUERY1</t>
+  </si>
+  <si>
+    <t>QUERY2</t>
+  </si>
+  <si>
+    <t>QUERY3</t>
+  </si>
+  <si>
+    <t>USER_DB</t>
+  </si>
+  <si>
+    <t>PASSWORD_DB</t>
+  </si>
+  <si>
+    <t>HOSTNAME</t>
+  </si>
+  <si>
+    <t>EXPL_QUERY1</t>
+  </si>
+  <si>
+    <t>EXPL_QUERY2</t>
+  </si>
+  <si>
+    <t>EXPL_QUERY3</t>
+  </si>
+  <si>
+    <t>sa</t>
+  </si>
+  <si>
+    <t>4eFfEJAA!</t>
+  </si>
+  <si>
+    <t>192.168.232.6</t>
+  </si>
+  <si>
+    <t>UPDATE DigisalesNew..Tbl_ReqDataNasabahKelolaanDetails SET StatusFlaggingNew = 4 WHERE CIF = 10187811885
+AND NppSales = 23320</t>
+  </si>
+  <si>
+    <t>Update Status Flagging menjadi Menunggu Approval SPV/Penyelia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +208,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,11 +235,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -215,6 +269,18 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,189 +603,288 @@
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="14" max="14" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="25" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.140625" customWidth="1"/>
     <col min="18" max="18" width="23.42578125" customWidth="1"/>
     <col min="19" max="19" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="Q1" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V1" t="s">
+        <v>33</v>
+      </c>
+      <c r="W1" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="102" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:25" ht="102" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="F2" s="12">
+        <v>23320</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="M2" s="12">
+        <v>10187811885</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="14"/>
+    </row>
+    <row r="3" spans="1:25" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="S3" s="10"/>
+      <c r="T3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="102" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="13">
-        <v>20037</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="12">
+        <v>23320</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="13">
-        <v>9003982023</v>
-      </c>
-      <c r="N2" s="14" t="s">
+      <c r="L4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="12">
+        <v>10187811885</v>
+      </c>
+      <c r="N4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="13">
-        <v>9936964558</v>
-      </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O4" s="12"/>
+      <c r="P4" s="10"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="8"/>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="9"/>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="8"/>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
